--- a/medicine/Sexualité et sexologie/Mouvement_sexpositif/Mouvement_sexpositif.xlsx
+++ b/medicine/Sexualité et sexologie/Mouvement_sexpositif/Mouvement_sexpositif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mouvement sexpositif, également appelé mouvement pro-sexe (souvent abrégé sex+), est un mouvement social et philosophique qui promeut et inclut la sexualité et l'expression sexuelle, avec une attention particulière sur le sexe à moindre risque, l'inclusivité[1] et le consentement sexuel[2],[3].
-La sexualité positive est une philosophie issue du mouvement féministe des années 1980. Elle donne le pouvoir aux personnes de penser de vivre leur sexualité en se détachant des oppressions patriarcales et des schémas hétéronormatifs. Elle est une « attitude envers la sexualité humaine qui considère toutes les activités sexuelles consenties entre personnes majeures comme fondamentalement saines et plaisantes, et qui encourage le plaisir sexuel et l'expérimentation sexuelle »[2]. Le mouvement sexpositif plaide également pour une éducation sexuelle complète et des rapports sexuels protégés dans le cadre de sa campagne[4],[2]. Le mouvement ne fait généralement aucune distinction morale entre les types d'activités sexuelles : il considère que ce sont des choix relevant de préférences personnelles[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mouvement sexpositif, également appelé mouvement pro-sexe (souvent abrégé sex+), est un mouvement social et philosophique qui promeut et inclut la sexualité et l'expression sexuelle, avec une attention particulière sur le sexe à moindre risque, l'inclusivité et le consentement sexuel,.
+La sexualité positive est une philosophie issue du mouvement féministe des années 1980. Elle donne le pouvoir aux personnes de penser de vivre leur sexualité en se détachant des oppressions patriarcales et des schémas hétéronormatifs. Elle est une « attitude envers la sexualité humaine qui considère toutes les activités sexuelles consenties entre personnes majeures comme fondamentalement saines et plaisantes, et qui encourage le plaisir sexuel et l'expérimentation sexuelle ». Le mouvement sexpositif plaide également pour une éducation sexuelle complète et des rapports sexuels protégés dans le cadre de sa campagne,. Le mouvement ne fait généralement aucune distinction morale entre les types d'activités sexuelles : il considère que ce sont des choix relevant de préférences personnelles.
 </t>
         </is>
       </c>
